--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>162.5758238371536</v>
+        <v>36.12796085270084</v>
       </c>
       <c r="C2">
-        <v>13.68789723541414</v>
+        <v>3.041754941203142</v>
       </c>
       <c r="D2">
-        <v>81.85129356781657</v>
+        <v>18.18917634840368</v>
       </c>
       <c r="E2">
-        <v>49.40579562326236</v>
+        <v>10.9790656940583</v>
       </c>
       <c r="F2">
-        <v>73.63738342960028</v>
+        <v>16.36386298435562</v>
       </c>
       <c r="G2">
-        <v>175.9257991622979</v>
+        <v>39.09462203606623</v>
       </c>
       <c r="H2">
-        <v>8.499292339833035</v>
+        <v>1.888731631074008</v>
       </c>
       <c r="I2">
-        <v>565.5832851953779</v>
+        <v>125.6851744878618</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>167.0978003942135</v>
+        <v>37.13284453204749</v>
       </c>
       <c r="C3">
-        <v>17.25865303595696</v>
+        <v>3.835256230212657</v>
       </c>
       <c r="D3">
-        <v>62.36289033738404</v>
+        <v>13.85842007497423</v>
       </c>
       <c r="E3">
-        <v>37.54840467367939</v>
+        <v>8.344089927484307</v>
       </c>
       <c r="F3">
-        <v>70.93012668586499</v>
+        <v>15.76225037463666</v>
       </c>
       <c r="G3">
-        <v>147.6907943584724</v>
+        <v>32.82017652410497</v>
       </c>
       <c r="H3">
-        <v>5.312057712395646</v>
+        <v>1.180457269421255</v>
       </c>
       <c r="I3">
-        <v>508.200727197967</v>
+        <v>112.9334949328816</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>170.7584480832621</v>
+        <v>37.94632179628048</v>
       </c>
       <c r="C4">
-        <v>19.04403093622837</v>
+        <v>4.232006874717414</v>
       </c>
       <c r="D4">
-        <v>44.82332742999479</v>
+        <v>9.960739428887731</v>
       </c>
       <c r="E4">
-        <v>51.38202744819282</v>
+        <v>11.41822832182063</v>
       </c>
       <c r="F4">
-        <v>67.13996724463556</v>
+        <v>14.91999272103013</v>
       </c>
       <c r="G4">
-        <v>73.84539717923619</v>
+        <v>16.41008826205249</v>
       </c>
       <c r="H4">
-        <v>5.312057712395646</v>
+        <v>1.180457269421255</v>
       </c>
       <c r="I4">
-        <v>432.3052560339455</v>
+        <v>96.0678346742101</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>185.4010388394561</v>
+        <v>41.20023085321245</v>
       </c>
       <c r="C5">
-        <v>17.25865303595696</v>
+        <v>3.835256230212657</v>
       </c>
       <c r="D5">
-        <v>70.15825162955703</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E5">
-        <v>61.26318657284531</v>
+        <v>13.61404146063229</v>
       </c>
       <c r="F5">
-        <v>49.81352408472962</v>
+        <v>11.0696720188288</v>
       </c>
       <c r="G5">
-        <v>47.78231582185871</v>
+        <v>10.61829240485749</v>
       </c>
       <c r="H5">
-        <v>8.499292339833035</v>
+        <v>1.888731631074008</v>
       </c>
       <c r="I5">
-        <v>440.1762623242368</v>
+        <v>97.81694718316369</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>222.4381801639466</v>
+        <v>49.43070670309926</v>
       </c>
       <c r="C6">
-        <v>19.6391569029855</v>
+        <v>4.364257089552333</v>
       </c>
       <c r="D6">
-        <v>64.3117306604273</v>
+        <v>14.29149570231717</v>
       </c>
       <c r="E6">
-        <v>43.47710014847085</v>
+        <v>9.661577810771304</v>
       </c>
       <c r="F6">
-        <v>39.52594845853545</v>
+        <v>8.783544101896771</v>
       </c>
       <c r="G6">
-        <v>28.2350048038256</v>
+        <v>6.274445511961246</v>
       </c>
       <c r="H6">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I6">
-        <v>419.7519442231496</v>
+        <v>93.27820982736658</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>192.937666434556</v>
+        <v>42.87503698545687</v>
       </c>
       <c r="C7">
-        <v>4.165881767299956</v>
+        <v>0.9257515038444346</v>
       </c>
       <c r="D7">
-        <v>62.36289033738404</v>
+        <v>13.85842007497423</v>
       </c>
       <c r="E7">
-        <v>69.16811387256726</v>
+        <v>15.37069197168162</v>
       </c>
       <c r="F7">
-        <v>22.74095664737656</v>
+        <v>5.053545921639236</v>
       </c>
       <c r="G7">
-        <v>21.71923446448123</v>
+        <v>4.826496547662497</v>
       </c>
       <c r="H7">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I7">
-        <v>375.2195666086233</v>
+        <v>83.38212591302739</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>153.9625351570396</v>
+        <v>34.21389670156435</v>
       </c>
       <c r="C8">
-        <v>15.47327513568555</v>
+        <v>3.4385055857079</v>
       </c>
       <c r="D8">
-        <v>33.13028549173527</v>
+        <v>7.362285664830063</v>
       </c>
       <c r="E8">
-        <v>57.31072292298432</v>
+        <v>12.73571620510762</v>
       </c>
       <c r="F8">
-        <v>25.98966473985893</v>
+        <v>5.775481053301984</v>
       </c>
       <c r="G8">
-        <v>26.06308135737748</v>
+        <v>5.791795857194995</v>
       </c>
       <c r="H8">
-        <v>4.249646169916518</v>
+        <v>0.9443658155370039</v>
       </c>
       <c r="I8">
-        <v>316.1792109745977</v>
+        <v>70.26204688324391</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>135.2286322777914</v>
+        <v>30.05080717284254</v>
       </c>
       <c r="C9">
-        <v>23.80503867028545</v>
+        <v>5.290008593396768</v>
       </c>
       <c r="D9">
-        <v>38.97680646086503</v>
+        <v>8.661512546858892</v>
       </c>
       <c r="E9">
-        <v>86.95420029694171</v>
+        <v>19.32315562154261</v>
       </c>
       <c r="F9">
-        <v>15.70208911366477</v>
+        <v>3.489353136369949</v>
       </c>
       <c r="G9">
-        <v>36.92269858961809</v>
+        <v>8.205044131026243</v>
       </c>
       <c r="H9">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I9">
-        <v>339.7142884941248</v>
+        <v>75.4920641098055</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>119.0787160025774</v>
+        <v>26.46193688946165</v>
       </c>
       <c r="C10">
-        <v>10.11714143487132</v>
+        <v>2.248253652193627</v>
       </c>
       <c r="D10">
-        <v>29.23260484564878</v>
+        <v>6.496134410144171</v>
       </c>
       <c r="E10">
-        <v>53.35825927312332</v>
+        <v>11.85739094958296</v>
       </c>
       <c r="F10">
-        <v>15.16063776491771</v>
+        <v>3.369030614426157</v>
       </c>
       <c r="G10">
-        <v>19.54731101803311</v>
+        <v>4.343846892896246</v>
       </c>
       <c r="H10">
-        <v>6.374469254874777</v>
+        <v>1.416548723305506</v>
       </c>
       <c r="I10">
-        <v>252.8691395940465</v>
+        <v>56.19314213201032</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>67.18365170489002</v>
+        <v>14.92970037886445</v>
       </c>
       <c r="C11">
-        <v>4.761007734057092</v>
+        <v>1.058001718679354</v>
       </c>
       <c r="D11">
-        <v>9.744201615216257</v>
+        <v>2.165378136714723</v>
       </c>
       <c r="E11">
-        <v>35.57217284874888</v>
+        <v>7.904927299721972</v>
       </c>
       <c r="F11">
-        <v>13.53628371867652</v>
+        <v>3.008063048594784</v>
       </c>
       <c r="G11">
-        <v>10.85961723224062</v>
+        <v>2.413248273831249</v>
       </c>
       <c r="H11">
-        <v>5.312057712395646</v>
+        <v>1.180457269421255</v>
       </c>
       <c r="I11">
-        <v>146.968992566225</v>
+        <v>32.65977612582778</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>46.08109443861044</v>
+        <v>10.2402432085801</v>
       </c>
       <c r="C12">
-        <v>4.761007734057092</v>
+        <v>1.058001718679354</v>
       </c>
       <c r="D12">
-        <v>7.795361292173005</v>
+        <v>1.732302509371779</v>
       </c>
       <c r="E12">
-        <v>13.83362277451346</v>
+        <v>3.074138394336324</v>
       </c>
       <c r="F12">
-        <v>6.497416184964732</v>
+        <v>1.443870263325496</v>
       </c>
       <c r="G12">
-        <v>8.687693785792492</v>
+        <v>1.930598619064998</v>
       </c>
       <c r="H12">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I12">
-        <v>89.78101929506947</v>
+        <v>19.95133762112656</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>28.42385264437653</v>
+        <v>6.316411698750342</v>
       </c>
       <c r="C13">
-        <v>4.165881767299956</v>
+        <v>0.9257515038444346</v>
       </c>
       <c r="D13">
-        <v>1.948840323043251</v>
+        <v>0.4330756273429447</v>
       </c>
       <c r="F13">
-        <v>5.955964836217671</v>
+        <v>1.323547741381705</v>
       </c>
       <c r="G13">
-        <v>6.51577033934437</v>
+        <v>1.447948964298749</v>
       </c>
       <c r="H13">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I13">
-        <v>48.07272145276091</v>
+        <v>10.68282698950243</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>23.04054721930522</v>
+        <v>5.120121604290052</v>
       </c>
       <c r="C14">
-        <v>5.356133700814228</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D14">
-        <v>9.744201615216257</v>
+        <v>2.165378136714723</v>
       </c>
       <c r="F14">
-        <v>7.580318882458855</v>
+        <v>1.684515307213079</v>
       </c>
       <c r="G14">
-        <v>6.51577033934437</v>
+        <v>1.447948964298749</v>
       </c>
       <c r="H14">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I14">
-        <v>54.36179484209718</v>
+        <v>12.08039885379938</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>17.22657736022821</v>
+        <v>3.828128302272934</v>
       </c>
       <c r="C15">
-        <v>2.975629833785681</v>
+        <v>0.6612510741745961</v>
       </c>
       <c r="D15">
-        <v>3.897680646086502</v>
+        <v>0.8661512546858895</v>
       </c>
       <c r="F15">
-        <v>4.873062138723547</v>
+        <v>1.082902697494122</v>
       </c>
       <c r="G15">
-        <v>13.03154067868874</v>
+        <v>2.895897928597497</v>
       </c>
       <c r="I15">
-        <v>42.00449065751268</v>
+        <v>9.334331257225038</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>14.85792297319683</v>
+        <v>3.301760660710407</v>
       </c>
       <c r="C16">
-        <v>2.975629833785681</v>
+        <v>0.6612510741745961</v>
       </c>
       <c r="D16">
-        <v>3.897680646086502</v>
+        <v>0.8661512546858895</v>
       </c>
       <c r="E16">
-        <v>9.881159124652468</v>
+        <v>2.19581313881166</v>
       </c>
       <c r="F16">
-        <v>4.331610789976488</v>
+        <v>0.9625801755503307</v>
       </c>
       <c r="G16">
-        <v>10.85961723224062</v>
+        <v>2.413248273831249</v>
       </c>
       <c r="I16">
-        <v>46.80362059993858</v>
+        <v>10.40080457776413</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>28.42385264437653</v>
+        <v>6.316411698750342</v>
       </c>
       <c r="C17">
-        <v>3.570755800542819</v>
+        <v>0.7935012890095151</v>
       </c>
       <c r="D17">
-        <v>15.59072258434601</v>
+        <v>3.464605018743558</v>
       </c>
       <c r="E17">
-        <v>1.976231824930493</v>
+        <v>0.4391626277623319</v>
       </c>
       <c r="F17">
-        <v>8.663221579952976</v>
+        <v>1.925160351100661</v>
       </c>
       <c r="G17">
-        <v>10.85961723224062</v>
+        <v>2.413248273831249</v>
       </c>
       <c r="I17">
-        <v>69.08440166638945</v>
+        <v>15.35208925919766</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>94.74617548125508</v>
+        <v>21.05470566250114</v>
       </c>
       <c r="C18">
-        <v>5.356133700814228</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D18">
-        <v>44.82332742999479</v>
+        <v>9.960739428887731</v>
       </c>
       <c r="E18">
-        <v>15.80985459944394</v>
+        <v>3.513301022098655</v>
       </c>
       <c r="F18">
-        <v>26.53111608860598</v>
+        <v>5.895803575245775</v>
       </c>
       <c r="G18">
-        <v>41.26654548251435</v>
+        <v>9.170343440558744</v>
       </c>
       <c r="H18">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I18">
-        <v>229.5955643251075</v>
+        <v>51.02123651669056</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>150.3018874679911</v>
+        <v>33.40041943733138</v>
       </c>
       <c r="C19">
-        <v>4.165881767299956</v>
+        <v>0.9257515038444346</v>
       </c>
       <c r="D19">
-        <v>50.66984839912454</v>
+        <v>11.25996631091656</v>
       </c>
       <c r="E19">
-        <v>84.9779684720112</v>
+        <v>18.88399299378027</v>
       </c>
       <c r="F19">
-        <v>44.94046194600605</v>
+        <v>9.98676932133468</v>
       </c>
       <c r="G19">
-        <v>62.98577994699559</v>
+        <v>13.99683998822124</v>
       </c>
       <c r="H19">
-        <v>3.187234627437388</v>
+        <v>0.7082743616527529</v>
       </c>
       <c r="I19">
-        <v>401.2290626268658</v>
+        <v>89.16201391708132</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>182.601720018419</v>
+        <v>40.57816000409308</v>
       </c>
       <c r="C20">
-        <v>10.11714143487132</v>
+        <v>2.248253652193627</v>
       </c>
       <c r="D20">
-        <v>40.92564678390828</v>
+        <v>9.09458817420184</v>
       </c>
       <c r="E20">
-        <v>75.09680934735877</v>
+        <v>16.68817985496861</v>
       </c>
       <c r="F20">
-        <v>35.19433766855896</v>
+        <v>7.820963926346437</v>
       </c>
       <c r="G20">
-        <v>47.78231582185871</v>
+        <v>10.61829240485749</v>
       </c>
       <c r="I20">
-        <v>391.717971074975</v>
+        <v>87.04843801666108</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>196.8136463406072</v>
+        <v>43.73636585346829</v>
       </c>
       <c r="C21">
-        <v>13.68789723541414</v>
+        <v>3.041754941203142</v>
       </c>
       <c r="D21">
-        <v>66.26057098347054</v>
+        <v>14.72457132966013</v>
       </c>
       <c r="E21">
-        <v>61.26318657284531</v>
+        <v>13.61404146063229</v>
       </c>
       <c r="F21">
-        <v>42.23320520227076</v>
+        <v>9.385156711615723</v>
       </c>
       <c r="G21">
-        <v>58.64193305409933</v>
+        <v>13.03154067868874</v>
       </c>
       <c r="H21">
-        <v>9.561703882312163</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I21">
-        <v>448.4621432710194</v>
+        <v>99.65825406022658</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>173.3424346872964</v>
+        <v>38.5205410416214</v>
       </c>
       <c r="C22">
-        <v>19.04403093622837</v>
+        <v>4.232006874717414</v>
       </c>
       <c r="D22">
-        <v>85.74897421390308</v>
+        <v>19.05532760308957</v>
       </c>
       <c r="E22">
-        <v>51.38202744819282</v>
+        <v>11.41822832182063</v>
       </c>
       <c r="F22">
-        <v>69.30577263962381</v>
+        <v>15.40128280880529</v>
       </c>
       <c r="G22">
-        <v>132.4873302333355</v>
+        <v>29.44162894074123</v>
       </c>
       <c r="H22">
-        <v>4.249646169916518</v>
+        <v>0.9443658155370039</v>
       </c>
       <c r="I22">
-        <v>535.5602163284966</v>
+        <v>119.0133814063325</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>144.7032498259169</v>
+        <v>32.15627773909267</v>
       </c>
       <c r="C23">
-        <v>17.25865303595696</v>
+        <v>3.835256230212657</v>
       </c>
       <c r="D23">
-        <v>40.92564678390828</v>
+        <v>9.09458817420184</v>
       </c>
       <c r="E23">
-        <v>45.45333197340135</v>
+        <v>10.10074043853363</v>
       </c>
       <c r="F23">
-        <v>73.09593208085323</v>
+        <v>16.24354046241183</v>
       </c>
       <c r="G23">
-        <v>169.4100288229536</v>
+        <v>37.64667307176747</v>
       </c>
       <c r="H23">
-        <v>8.499292339833035</v>
+        <v>1.888731631074008</v>
       </c>
       <c r="I23">
-        <v>499.3461348628234</v>
+        <v>110.9658077472941</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>134.5826356267829</v>
+        <v>29.9072523615073</v>
       </c>
       <c r="C24">
-        <v>17.25865303595696</v>
+        <v>3.835256230212657</v>
       </c>
       <c r="D24">
-        <v>46.77216775303803</v>
+        <v>10.39381505623067</v>
       </c>
       <c r="E24">
-        <v>43.47710014847085</v>
+        <v>9.661577810771304</v>
       </c>
       <c r="F24">
-        <v>69.84722398837087</v>
+        <v>15.52160533074909</v>
       </c>
       <c r="G24">
-        <v>201.9888805196755</v>
+        <v>44.88641789326122</v>
       </c>
       <c r="H24">
-        <v>5.312057712395646</v>
+        <v>1.180457269421255</v>
       </c>
       <c r="I24">
-        <v>519.2387187846908</v>
+        <v>115.3863819521535</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>144.4879176089141</v>
+        <v>32.10842613531426</v>
       </c>
       <c r="C25">
-        <v>23.20991270352832</v>
+        <v>5.157758378561849</v>
       </c>
       <c r="D25">
-        <v>56.51636936825429</v>
+        <v>12.5591931929454</v>
       </c>
       <c r="E25">
-        <v>45.45333197340135</v>
+        <v>10.10074043853363</v>
       </c>
       <c r="F25">
-        <v>57.39384296718846</v>
+        <v>12.75418732604188</v>
       </c>
       <c r="G25">
-        <v>208.5046508590198</v>
+        <v>46.33436685755996</v>
       </c>
       <c r="H25">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I25">
-        <v>536.6284370227854</v>
+        <v>119.2507637828412</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>160.8531661011309</v>
+        <v>35.74514802247353</v>
       </c>
       <c r="C26">
-        <v>27.97092043758541</v>
+        <v>6.215760097241203</v>
       </c>
       <c r="D26">
-        <v>74.05593227564354</v>
+        <v>16.4568738390319</v>
       </c>
       <c r="E26">
-        <v>41.50086832354036</v>
+        <v>9.222415183008971</v>
       </c>
       <c r="F26">
-        <v>67.13996724463556</v>
+        <v>14.91999272103013</v>
       </c>
       <c r="G26">
-        <v>193.301186733883</v>
+        <v>42.95581927419622</v>
       </c>
       <c r="H26">
-        <v>4.249646169916518</v>
+        <v>0.9443658155370039</v>
       </c>
       <c r="I26">
-        <v>569.0716872863354</v>
+        <v>126.4603749525189</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>158.9151761481052</v>
+        <v>35.31448358846782</v>
       </c>
       <c r="C27">
-        <v>25.59041657055687</v>
+        <v>5.686759237901527</v>
       </c>
       <c r="D27">
-        <v>68.20941130651379</v>
+        <v>15.15764695700306</v>
       </c>
       <c r="E27">
-        <v>37.54840467367939</v>
+        <v>8.344089927484307</v>
       </c>
       <c r="F27">
-        <v>67.68141859338263</v>
+        <v>15.04031524297392</v>
       </c>
       <c r="G27">
-        <v>132.4873302333355</v>
+        <v>29.44162894074123</v>
       </c>
       <c r="H27">
-        <v>18.0609962221452</v>
+        <v>4.013554716032266</v>
       </c>
       <c r="I27">
-        <v>508.4931537477186</v>
+        <v>112.9984786106041</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>165.8058070921965</v>
+        <v>36.84573490937697</v>
       </c>
       <c r="C28">
-        <v>24.99529060379973</v>
+        <v>5.554509023066608</v>
       </c>
       <c r="D28">
-        <v>74.05593227564354</v>
+        <v>16.4568738390319</v>
       </c>
       <c r="E28">
-        <v>47.42956379833183</v>
+        <v>10.53990306629596</v>
       </c>
       <c r="F28">
-        <v>65.51561319839436</v>
+        <v>14.55902515519875</v>
       </c>
       <c r="G28">
-        <v>162.8942584836092</v>
+        <v>36.19872410746872</v>
       </c>
       <c r="H28">
-        <v>7.436880797353907</v>
+        <v>1.652640177189757</v>
       </c>
       <c r="I28">
-        <v>548.1333462493291</v>
+        <v>121.8074102776287</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>155.0391962420539</v>
+        <v>34.45315472045642</v>
       </c>
       <c r="C29">
-        <v>21.42453480325691</v>
+        <v>4.761007734057092</v>
       </c>
       <c r="D29">
-        <v>66.26057098347054</v>
+        <v>14.72457132966013</v>
       </c>
       <c r="E29">
-        <v>53.35825927312332</v>
+        <v>11.85739094958296</v>
       </c>
       <c r="F29">
-        <v>44.94046194600605</v>
+        <v>9.98676932133468</v>
       </c>
       <c r="G29">
-        <v>132.4873302333355</v>
+        <v>29.44162894074123</v>
       </c>
       <c r="H29">
-        <v>5.312057712395646</v>
+        <v>1.180457269421255</v>
       </c>
       <c r="I29">
-        <v>478.8224111936419</v>
+        <v>106.4049802652538</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>176.3570857253362</v>
+        <v>39.19046349451916</v>
       </c>
       <c r="C30">
-        <v>9.522015468114184</v>
+        <v>2.116003437358707</v>
       </c>
       <c r="D30">
-        <v>76.0047725986868</v>
+        <v>16.88994946637484</v>
       </c>
       <c r="E30">
-        <v>37.54840467367939</v>
+        <v>8.344089927484307</v>
       </c>
       <c r="F30">
-        <v>43.31610789976487</v>
+        <v>9.625801755503307</v>
       </c>
       <c r="G30">
-        <v>125.9715598939912</v>
+        <v>27.99367997644248</v>
       </c>
       <c r="H30">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I30">
-        <v>470.8447693445309</v>
+        <v>104.6321709654513</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>171.8351091682763</v>
+        <v>38.18557981517254</v>
       </c>
       <c r="C31">
-        <v>1.190251933514273</v>
+        <v>0.2645004296698384</v>
       </c>
       <c r="D31">
-        <v>33.13028549173527</v>
+        <v>7.362285664830063</v>
       </c>
       <c r="E31">
-        <v>71.14434569749776</v>
+        <v>15.80985459944394</v>
       </c>
       <c r="F31">
-        <v>22.74095664737656</v>
+        <v>5.053545921639236</v>
       </c>
       <c r="G31">
-        <v>97.73655509016555</v>
+        <v>21.71923446448123</v>
       </c>
       <c r="I31">
-        <v>397.7775040285657</v>
+        <v>88.39500089523685</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>152.8858740720252</v>
+        <v>33.97463868267231</v>
       </c>
       <c r="C32">
-        <v>5.356133700814228</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D32">
-        <v>42.87448710695154</v>
+        <v>9.527663801544783</v>
       </c>
       <c r="E32">
-        <v>83.00173664708072</v>
+        <v>18.44483036601794</v>
       </c>
       <c r="F32">
-        <v>23.82385934487068</v>
+        <v>5.294190965526819</v>
       </c>
       <c r="G32">
-        <v>76.01732062568432</v>
+        <v>16.89273791681874</v>
       </c>
       <c r="I32">
-        <v>383.9594114974267</v>
+        <v>85.32431366609487</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>121.8780348236146</v>
+        <v>27.08400773858101</v>
       </c>
       <c r="C33">
-        <v>9.522015468114184</v>
+        <v>2.116003437358707</v>
       </c>
       <c r="D33">
-        <v>44.82332742999479</v>
+        <v>9.960739428887731</v>
       </c>
       <c r="E33">
-        <v>69.16811387256726</v>
+        <v>15.37069197168162</v>
       </c>
       <c r="F33">
-        <v>13.53628371867652</v>
+        <v>3.008063048594784</v>
       </c>
       <c r="G33">
-        <v>32.57885169672186</v>
+        <v>7.239744821493747</v>
       </c>
       <c r="I33">
-        <v>291.5066270096892</v>
+        <v>64.77925044659759</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>96.03816878327225</v>
+        <v>21.34181528517162</v>
       </c>
       <c r="C34">
-        <v>5.356133700814228</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D34">
-        <v>27.28376452260552</v>
+        <v>6.063058782801227</v>
       </c>
       <c r="E34">
-        <v>57.31072292298432</v>
+        <v>12.73571620510762</v>
       </c>
       <c r="F34">
-        <v>7.038867533711793</v>
+        <v>1.564192785269288</v>
       </c>
       <c r="G34">
-        <v>30.40692825027374</v>
+        <v>6.757095166727497</v>
       </c>
       <c r="I34">
-        <v>223.4345857136619</v>
+        <v>49.65213015859153</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>63.09233958183579</v>
+        <v>14.02051990707463</v>
       </c>
       <c r="C35">
-        <v>4.165881767299956</v>
+        <v>0.9257515038444346</v>
       </c>
       <c r="D35">
-        <v>13.64188226130276</v>
+        <v>3.031529391400614</v>
       </c>
       <c r="E35">
-        <v>39.52463649860987</v>
+        <v>8.783252555246641</v>
       </c>
       <c r="F35">
-        <v>11.37047832368828</v>
+        <v>2.526772960819618</v>
       </c>
       <c r="G35">
-        <v>45.61039237541058</v>
+        <v>10.13564275009124</v>
       </c>
       <c r="I35">
-        <v>177.4056108081472</v>
+        <v>39.42346906847717</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>45.21976557059905</v>
+        <v>10.04883679346646</v>
       </c>
       <c r="C36">
-        <v>2.380503867028546</v>
+        <v>0.5290008593396768</v>
       </c>
       <c r="D36">
-        <v>11.69304193825951</v>
+        <v>2.598453764057668</v>
       </c>
       <c r="E36">
-        <v>15.80985459944394</v>
+        <v>3.513301022098655</v>
       </c>
       <c r="F36">
-        <v>8.121770231205915</v>
+        <v>1.80483782915687</v>
       </c>
       <c r="G36">
-        <v>23.89115791092935</v>
+        <v>5.309146202428745</v>
       </c>
       <c r="H36">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I36">
-        <v>108.1785056599454</v>
+        <v>24.03966792443232</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>27.34719155936227</v>
+        <v>6.077153679858285</v>
       </c>
       <c r="C37">
-        <v>1.785377900271409</v>
+        <v>0.3967506445047576</v>
       </c>
       <c r="E37">
-        <v>1.976231824930493</v>
+        <v>0.4391626277623319</v>
       </c>
       <c r="F37">
-        <v>8.121770231205915</v>
+        <v>1.80483782915687</v>
       </c>
       <c r="G37">
-        <v>26.06308135737748</v>
+        <v>5.791795857194995</v>
       </c>
       <c r="I37">
-        <v>65.29365287314756</v>
+        <v>14.50970063847724</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>19.37989953025674</v>
+        <v>4.306644340057052</v>
       </c>
       <c r="C38">
-        <v>3.570755800542819</v>
+        <v>0.7935012890095151</v>
       </c>
       <c r="D38">
-        <v>5.846520969129754</v>
+        <v>1.299226882028834</v>
       </c>
       <c r="E38">
-        <v>1.976231824930493</v>
+        <v>0.4391626277623319</v>
       </c>
       <c r="F38">
-        <v>8.663221579952976</v>
+        <v>1.925160351100661</v>
       </c>
       <c r="G38">
-        <v>8.687693785792492</v>
+        <v>1.930598619064998</v>
       </c>
       <c r="I38">
-        <v>48.12432349060527</v>
+        <v>10.69429410902339</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>13.35059745417686</v>
+        <v>2.966799434261525</v>
       </c>
       <c r="C39">
-        <v>1.190251933514273</v>
+        <v>0.2645004296698384</v>
       </c>
       <c r="D39">
-        <v>9.744201615216257</v>
+        <v>2.165378136714723</v>
       </c>
       <c r="F39">
-        <v>1.082902697494122</v>
+        <v>0.2406450438875827</v>
       </c>
       <c r="G39">
-        <v>21.71923446448123</v>
+        <v>4.826496547662497</v>
       </c>
       <c r="I39">
-        <v>47.08718816488275</v>
+        <v>10.46381959219617</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>10.76661085014263</v>
+        <v>2.392580188920585</v>
       </c>
       <c r="C40">
-        <v>2.380503867028546</v>
+        <v>0.5290008593396768</v>
       </c>
       <c r="D40">
-        <v>1.948840323043251</v>
+        <v>0.4330756273429447</v>
       </c>
       <c r="E40">
-        <v>9.881159124652468</v>
+        <v>2.19581313881166</v>
       </c>
       <c r="F40">
-        <v>4.873062138723547</v>
+        <v>1.082902697494122</v>
       </c>
       <c r="G40">
-        <v>10.85961723224062</v>
+        <v>2.413248273831249</v>
       </c>
       <c r="I40">
-        <v>40.70979353583106</v>
+        <v>9.046620785740236</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>28.42385264437653</v>
+        <v>6.316411698750342</v>
       </c>
       <c r="C41">
-        <v>2.380503867028546</v>
+        <v>0.5290008593396768</v>
       </c>
       <c r="D41">
-        <v>7.795361292173005</v>
+        <v>1.732302509371779</v>
       </c>
       <c r="E41">
-        <v>5.928695474791479</v>
+        <v>1.317487883286996</v>
       </c>
       <c r="F41">
-        <v>7.038867533711793</v>
+        <v>1.564192785269288</v>
       </c>
       <c r="G41">
-        <v>8.687693785792492</v>
+        <v>1.930598619064998</v>
       </c>
       <c r="I41">
-        <v>60.25497459787385</v>
+        <v>13.38999435508308</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>75.79694038500411</v>
+        <v>16.84376453000091</v>
       </c>
       <c r="C42">
-        <v>0.5951259667571365</v>
+        <v>0.1322502148349192</v>
       </c>
       <c r="D42">
-        <v>35.07912581477851</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E42">
-        <v>21.73855007423543</v>
+        <v>4.830788905385652</v>
       </c>
       <c r="F42">
-        <v>22.74095664737656</v>
+        <v>5.053545921639236</v>
       </c>
       <c r="G42">
-        <v>32.57885169672186</v>
+        <v>7.239744821493747</v>
       </c>
       <c r="I42">
-        <v>188.5295505848736</v>
+        <v>41.89545568552747</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>124.4620214276488</v>
+        <v>27.65822698392196</v>
       </c>
       <c r="C43">
-        <v>3.570755800542819</v>
+        <v>0.7935012890095151</v>
       </c>
       <c r="D43">
-        <v>40.92564678390828</v>
+        <v>9.09458817420184</v>
       </c>
       <c r="E43">
-        <v>75.09680934735877</v>
+        <v>16.68817985496861</v>
       </c>
       <c r="F43">
-        <v>47.10626734099431</v>
+        <v>10.46805940910984</v>
       </c>
       <c r="G43">
-        <v>60.81385650054747</v>
+        <v>13.51419033345499</v>
       </c>
       <c r="I43">
-        <v>351.9753572010005</v>
+        <v>78.21674604466676</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>177.0030823763448</v>
+        <v>39.33401830585442</v>
       </c>
       <c r="C44">
-        <v>5.951259667571363</v>
+        <v>1.322502148349192</v>
       </c>
       <c r="D44">
-        <v>33.13028549173527</v>
+        <v>7.362285664830063</v>
       </c>
       <c r="E44">
-        <v>75.09680934735877</v>
+        <v>16.68817985496861</v>
       </c>
       <c r="F44">
-        <v>24.90676204236481</v>
+        <v>5.534836009414401</v>
       </c>
       <c r="G44">
-        <v>45.61039237541058</v>
+        <v>10.13564275009124</v>
       </c>
       <c r="H44">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I44">
-        <v>363.8234143857439</v>
+        <v>80.84964764127643</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>169.6817869982479</v>
+        <v>37.70706377738843</v>
       </c>
       <c r="C45">
-        <v>19.04403093622837</v>
+        <v>4.232006874717414</v>
       </c>
       <c r="D45">
-        <v>48.72100807608127</v>
+        <v>10.82689068357362</v>
       </c>
       <c r="E45">
-        <v>43.47710014847085</v>
+        <v>9.661577810771304</v>
       </c>
       <c r="F45">
-        <v>41.6917538535237</v>
+        <v>9.264834189671936</v>
       </c>
       <c r="G45">
-        <v>82.53309096502869</v>
+        <v>18.34068688111749</v>
       </c>
       <c r="H45">
-        <v>5.312057712395646</v>
+        <v>1.180457269421255</v>
       </c>
       <c r="I45">
-        <v>410.4608286899764</v>
+        <v>91.21351748666146</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>160.2071694501223</v>
+        <v>35.60159321113828</v>
       </c>
       <c r="C46">
-        <v>11.90251933514273</v>
+        <v>2.645004296698384</v>
       </c>
       <c r="D46">
-        <v>52.61868872216778</v>
+        <v>11.69304193825951</v>
       </c>
       <c r="E46">
-        <v>63.23941839777578</v>
+        <v>14.05320408839462</v>
       </c>
       <c r="F46">
-        <v>55.22803757220021</v>
+        <v>12.27289723826672</v>
       </c>
       <c r="G46">
-        <v>110.7680957688543</v>
+        <v>24.61513239307873</v>
       </c>
       <c r="H46">
-        <v>4.249646169916518</v>
+        <v>0.9443658155370039</v>
       </c>
       <c r="I46">
-        <v>458.2135754161796</v>
+        <v>101.8252389813732</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>124.0313569936431</v>
+        <v>27.56252377636514</v>
       </c>
       <c r="C47">
-        <v>19.04403093622837</v>
+        <v>4.232006874717414</v>
       </c>
       <c r="D47">
-        <v>38.97680646086503</v>
+        <v>8.661512546858892</v>
       </c>
       <c r="E47">
-        <v>53.35825927312332</v>
+        <v>11.85739094958296</v>
       </c>
       <c r="F47">
-        <v>68.22286994212968</v>
+        <v>15.16063776491771</v>
       </c>
       <c r="G47">
-        <v>119.4557895546468</v>
+        <v>26.54573101214373</v>
       </c>
       <c r="H47">
-        <v>15.93617313718694</v>
+        <v>3.541371808263765</v>
       </c>
       <c r="I47">
-        <v>439.0252862978231</v>
+        <v>97.56117473284959</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>136.9512900138142</v>
+        <v>30.43362000306983</v>
       </c>
       <c r="C48">
-        <v>22.61478673677118</v>
+        <v>5.025508163726929</v>
       </c>
       <c r="D48">
-        <v>66.26057098347054</v>
+        <v>14.72457132966013</v>
       </c>
       <c r="E48">
-        <v>47.42956379833183</v>
+        <v>10.53990306629596</v>
       </c>
       <c r="F48">
-        <v>57.39384296718846</v>
+        <v>12.75418732604188</v>
       </c>
       <c r="G48">
-        <v>91.22078475082115</v>
+        <v>20.27128550018248</v>
       </c>
       <c r="H48">
-        <v>2.124823084958259</v>
+        <v>0.472182907768502</v>
       </c>
       <c r="I48">
-        <v>423.9956623353557</v>
+        <v>94.22125829674572</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>144.4879176089141</v>
+        <v>32.10842613531426</v>
       </c>
       <c r="C49">
-        <v>23.20991270352832</v>
+        <v>5.157758378561849</v>
       </c>
       <c r="D49">
-        <v>56.51636936825429</v>
+        <v>12.5591931929454</v>
       </c>
       <c r="E49">
-        <v>45.45333197340135</v>
+        <v>10.10074043853363</v>
       </c>
       <c r="F49">
-        <v>57.39384296718846</v>
+        <v>12.75418732604188</v>
       </c>
       <c r="G49">
-        <v>208.5046508590198</v>
+        <v>46.33436685755996</v>
       </c>
       <c r="H49">
-        <v>1.062411542479129</v>
+        <v>0.236091453884251</v>
       </c>
       <c r="I49">
-        <v>536.6284370227854</v>
+        <v>119.2507637828412</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>36.12796085270084</v>
+        <v>162.5758238371536</v>
       </c>
       <c r="C2">
-        <v>3.041754941203142</v>
+        <v>13.68789723541414</v>
       </c>
       <c r="D2">
-        <v>18.18917634840368</v>
+        <v>81.85129356781657</v>
       </c>
       <c r="E2">
-        <v>10.9790656940583</v>
+        <v>49.40579562326236</v>
       </c>
       <c r="F2">
-        <v>16.36386298435562</v>
+        <v>73.63738342960028</v>
       </c>
       <c r="G2">
-        <v>39.09462203606623</v>
+        <v>175.9257991622979</v>
       </c>
       <c r="H2">
-        <v>1.888731631074008</v>
+        <v>8.499292339833035</v>
       </c>
       <c r="I2">
-        <v>125.6851744878618</v>
+        <v>565.5832851953779</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>37.13284453204749</v>
+        <v>167.0978003942135</v>
       </c>
       <c r="C3">
-        <v>3.835256230212657</v>
+        <v>17.25865303595696</v>
       </c>
       <c r="D3">
-        <v>13.85842007497423</v>
+        <v>62.36289033738404</v>
       </c>
       <c r="E3">
-        <v>8.344089927484307</v>
+        <v>37.54840467367939</v>
       </c>
       <c r="F3">
-        <v>15.76225037463666</v>
+        <v>70.93012668586499</v>
       </c>
       <c r="G3">
-        <v>32.82017652410497</v>
+        <v>147.6907943584724</v>
       </c>
       <c r="H3">
-        <v>1.180457269421255</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I3">
-        <v>112.9334949328816</v>
+        <v>508.200727197967</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>37.94632179628048</v>
+        <v>170.7584480832621</v>
       </c>
       <c r="C4">
-        <v>4.232006874717414</v>
+        <v>19.04403093622837</v>
       </c>
       <c r="D4">
-        <v>9.960739428887731</v>
+        <v>44.82332742999479</v>
       </c>
       <c r="E4">
-        <v>11.41822832182063</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F4">
-        <v>14.91999272103013</v>
+        <v>67.13996724463556</v>
       </c>
       <c r="G4">
-        <v>16.41008826205249</v>
+        <v>73.84539717923619</v>
       </c>
       <c r="H4">
-        <v>1.180457269421255</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I4">
-        <v>96.0678346742101</v>
+        <v>432.3052560339455</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>41.20023085321245</v>
+        <v>185.4010388394561</v>
       </c>
       <c r="C5">
-        <v>3.835256230212657</v>
+        <v>17.25865303595696</v>
       </c>
       <c r="D5">
-        <v>15.59072258434601</v>
+        <v>70.15825162955703</v>
       </c>
       <c r="E5">
-        <v>13.61404146063229</v>
+        <v>61.26318657284531</v>
       </c>
       <c r="F5">
-        <v>11.0696720188288</v>
+        <v>49.81352408472962</v>
       </c>
       <c r="G5">
-        <v>10.61829240485749</v>
+        <v>47.78231582185871</v>
       </c>
       <c r="H5">
-        <v>1.888731631074008</v>
+        <v>8.499292339833035</v>
       </c>
       <c r="I5">
-        <v>97.81694718316369</v>
+        <v>440.1762623242368</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>49.43070670309926</v>
+        <v>222.4381801639466</v>
       </c>
       <c r="C6">
-        <v>4.364257089552333</v>
+        <v>19.6391569029855</v>
       </c>
       <c r="D6">
-        <v>14.29149570231717</v>
+        <v>64.3117306604273</v>
       </c>
       <c r="E6">
-        <v>9.661577810771304</v>
+        <v>43.47710014847085</v>
       </c>
       <c r="F6">
-        <v>8.783544101896771</v>
+        <v>39.52594845853545</v>
       </c>
       <c r="G6">
-        <v>6.274445511961246</v>
+        <v>28.2350048038256</v>
       </c>
       <c r="H6">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I6">
-        <v>93.27820982736658</v>
+        <v>419.7519442231496</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>42.87503698545687</v>
+        <v>192.937666434556</v>
       </c>
       <c r="C7">
-        <v>0.9257515038444346</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D7">
-        <v>13.85842007497423</v>
+        <v>62.36289033738404</v>
       </c>
       <c r="E7">
-        <v>15.37069197168162</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F7">
-        <v>5.053545921639236</v>
+        <v>22.74095664737656</v>
       </c>
       <c r="G7">
-        <v>4.826496547662497</v>
+        <v>21.71923446448123</v>
       </c>
       <c r="H7">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I7">
-        <v>83.38212591302739</v>
+        <v>375.2195666086233</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>34.21389670156435</v>
+        <v>153.9625351570396</v>
       </c>
       <c r="C8">
-        <v>3.4385055857079</v>
+        <v>15.47327513568555</v>
       </c>
       <c r="D8">
-        <v>7.362285664830063</v>
+        <v>33.13028549173527</v>
       </c>
       <c r="E8">
-        <v>12.73571620510762</v>
+        <v>57.31072292298432</v>
       </c>
       <c r="F8">
-        <v>5.775481053301984</v>
+        <v>25.98966473985893</v>
       </c>
       <c r="G8">
-        <v>5.791795857194995</v>
+        <v>26.06308135737748</v>
       </c>
       <c r="H8">
-        <v>0.9443658155370039</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I8">
-        <v>70.26204688324391</v>
+        <v>316.1792109745977</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>30.05080717284254</v>
+        <v>135.2286322777914</v>
       </c>
       <c r="C9">
-        <v>5.290008593396768</v>
+        <v>23.80503867028545</v>
       </c>
       <c r="D9">
-        <v>8.661512546858892</v>
+        <v>38.97680646086503</v>
       </c>
       <c r="E9">
-        <v>19.32315562154261</v>
+        <v>86.95420029694171</v>
       </c>
       <c r="F9">
-        <v>3.489353136369949</v>
+        <v>15.70208911366477</v>
       </c>
       <c r="G9">
-        <v>8.205044131026243</v>
+        <v>36.92269858961809</v>
       </c>
       <c r="H9">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I9">
-        <v>75.4920641098055</v>
+        <v>339.7142884941248</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>26.46193688946165</v>
+        <v>119.0787160025774</v>
       </c>
       <c r="C10">
-        <v>2.248253652193627</v>
+        <v>10.11714143487132</v>
       </c>
       <c r="D10">
-        <v>6.496134410144171</v>
+        <v>29.23260484564878</v>
       </c>
       <c r="E10">
-        <v>11.85739094958296</v>
+        <v>53.35825927312332</v>
       </c>
       <c r="F10">
-        <v>3.369030614426157</v>
+        <v>15.16063776491771</v>
       </c>
       <c r="G10">
-        <v>4.343846892896246</v>
+        <v>19.54731101803311</v>
       </c>
       <c r="H10">
-        <v>1.416548723305506</v>
+        <v>6.374469254874777</v>
       </c>
       <c r="I10">
-        <v>56.19314213201032</v>
+        <v>252.8691395940465</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>14.92970037886445</v>
+        <v>67.18365170489002</v>
       </c>
       <c r="C11">
-        <v>1.058001718679354</v>
+        <v>4.761007734057092</v>
       </c>
       <c r="D11">
-        <v>2.165378136714723</v>
+        <v>9.744201615216257</v>
       </c>
       <c r="E11">
-        <v>7.904927299721972</v>
+        <v>35.57217284874888</v>
       </c>
       <c r="F11">
-        <v>3.008063048594784</v>
+        <v>13.53628371867652</v>
       </c>
       <c r="G11">
-        <v>2.413248273831249</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="H11">
-        <v>1.180457269421255</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I11">
-        <v>32.65977612582778</v>
+        <v>146.968992566225</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>10.2402432085801</v>
+        <v>46.08109443861044</v>
       </c>
       <c r="C12">
-        <v>1.058001718679354</v>
+        <v>4.761007734057092</v>
       </c>
       <c r="D12">
-        <v>1.732302509371779</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E12">
-        <v>3.074138394336324</v>
+        <v>13.83362277451346</v>
       </c>
       <c r="F12">
-        <v>1.443870263325496</v>
+        <v>6.497416184964732</v>
       </c>
       <c r="G12">
-        <v>1.930598619064998</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="H12">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I12">
-        <v>19.95133762112656</v>
+        <v>89.78101929506947</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>6.316411698750342</v>
+        <v>28.42385264437653</v>
       </c>
       <c r="C13">
-        <v>0.9257515038444346</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D13">
-        <v>0.4330756273429447</v>
+        <v>1.948840323043251</v>
       </c>
       <c r="F13">
-        <v>1.323547741381705</v>
+        <v>5.955964836217671</v>
       </c>
       <c r="G13">
-        <v>1.447948964298749</v>
+        <v>6.51577033934437</v>
       </c>
       <c r="H13">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I13">
-        <v>10.68282698950243</v>
+        <v>48.07272145276091</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>5.120121604290052</v>
+        <v>23.04054721930522</v>
       </c>
       <c r="C14">
-        <v>1.190251933514273</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D14">
-        <v>2.165378136714723</v>
+        <v>9.744201615216257</v>
       </c>
       <c r="F14">
-        <v>1.684515307213079</v>
+        <v>7.580318882458855</v>
       </c>
       <c r="G14">
-        <v>1.447948964298749</v>
+        <v>6.51577033934437</v>
       </c>
       <c r="H14">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I14">
-        <v>12.08039885379938</v>
+        <v>54.36179484209718</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>3.828128302272934</v>
+        <v>17.22657736022821</v>
       </c>
       <c r="C15">
-        <v>0.6612510741745961</v>
+        <v>2.975629833785681</v>
       </c>
       <c r="D15">
-        <v>0.8661512546858895</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="F15">
-        <v>1.082902697494122</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G15">
-        <v>2.895897928597497</v>
+        <v>13.03154067868874</v>
       </c>
       <c r="I15">
-        <v>9.334331257225038</v>
+        <v>42.00449065751268</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>3.301760660710407</v>
+        <v>14.85792297319683</v>
       </c>
       <c r="C16">
-        <v>0.6612510741745961</v>
+        <v>2.975629833785681</v>
       </c>
       <c r="D16">
-        <v>0.8661512546858895</v>
+        <v>3.897680646086502</v>
       </c>
       <c r="E16">
-        <v>2.19581313881166</v>
+        <v>9.881159124652468</v>
       </c>
       <c r="F16">
-        <v>0.9625801755503307</v>
+        <v>4.331610789976488</v>
       </c>
       <c r="G16">
-        <v>2.413248273831249</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I16">
-        <v>10.40080457776413</v>
+        <v>46.80362059993858</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>6.316411698750342</v>
+        <v>28.42385264437653</v>
       </c>
       <c r="C17">
-        <v>0.7935012890095151</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="D17">
-        <v>3.464605018743558</v>
+        <v>15.59072258434601</v>
       </c>
       <c r="E17">
-        <v>0.4391626277623319</v>
+        <v>1.976231824930493</v>
       </c>
       <c r="F17">
-        <v>1.925160351100661</v>
+        <v>8.663221579952976</v>
       </c>
       <c r="G17">
-        <v>2.413248273831249</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I17">
-        <v>15.35208925919766</v>
+        <v>69.08440166638945</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>21.05470566250114</v>
+        <v>94.74617548125508</v>
       </c>
       <c r="C18">
-        <v>1.190251933514273</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D18">
-        <v>9.960739428887731</v>
+        <v>44.82332742999479</v>
       </c>
       <c r="E18">
-        <v>3.513301022098655</v>
+        <v>15.80985459944394</v>
       </c>
       <c r="F18">
-        <v>5.895803575245775</v>
+        <v>26.53111608860598</v>
       </c>
       <c r="G18">
-        <v>9.170343440558744</v>
+        <v>41.26654548251435</v>
       </c>
       <c r="H18">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I18">
-        <v>51.02123651669056</v>
+        <v>229.5955643251075</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>33.40041943733138</v>
+        <v>150.3018874679911</v>
       </c>
       <c r="C19">
-        <v>0.9257515038444346</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D19">
-        <v>11.25996631091656</v>
+        <v>50.66984839912454</v>
       </c>
       <c r="E19">
-        <v>18.88399299378027</v>
+        <v>84.9779684720112</v>
       </c>
       <c r="F19">
-        <v>9.98676932133468</v>
+        <v>44.94046194600605</v>
       </c>
       <c r="G19">
-        <v>13.99683998822124</v>
+        <v>62.98577994699559</v>
       </c>
       <c r="H19">
-        <v>0.7082743616527529</v>
+        <v>3.187234627437388</v>
       </c>
       <c r="I19">
-        <v>89.16201391708132</v>
+        <v>401.2290626268658</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>40.57816000409308</v>
+        <v>182.601720018419</v>
       </c>
       <c r="C20">
-        <v>2.248253652193627</v>
+        <v>10.11714143487132</v>
       </c>
       <c r="D20">
-        <v>9.09458817420184</v>
+        <v>40.92564678390828</v>
       </c>
       <c r="E20">
-        <v>16.68817985496861</v>
+        <v>75.09680934735877</v>
       </c>
       <c r="F20">
-        <v>7.820963926346437</v>
+        <v>35.19433766855896</v>
       </c>
       <c r="G20">
-        <v>10.61829240485749</v>
+        <v>47.78231582185871</v>
       </c>
       <c r="I20">
-        <v>87.04843801666108</v>
+        <v>391.717971074975</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>43.73636585346829</v>
+        <v>196.8136463406072</v>
       </c>
       <c r="C21">
-        <v>3.041754941203142</v>
+        <v>13.68789723541414</v>
       </c>
       <c r="D21">
-        <v>14.72457132966013</v>
+        <v>66.26057098347054</v>
       </c>
       <c r="E21">
-        <v>13.61404146063229</v>
+        <v>61.26318657284531</v>
       </c>
       <c r="F21">
-        <v>9.385156711615723</v>
+        <v>42.23320520227076</v>
       </c>
       <c r="G21">
-        <v>13.03154067868874</v>
+        <v>58.64193305409933</v>
       </c>
       <c r="H21">
-        <v>2.124823084958259</v>
+        <v>9.561703882312163</v>
       </c>
       <c r="I21">
-        <v>99.65825406022658</v>
+        <v>448.4621432710194</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>38.5205410416214</v>
+        <v>173.3424346872964</v>
       </c>
       <c r="C22">
-        <v>4.232006874717414</v>
+        <v>19.04403093622837</v>
       </c>
       <c r="D22">
-        <v>19.05532760308957</v>
+        <v>85.74897421390308</v>
       </c>
       <c r="E22">
-        <v>11.41822832182063</v>
+        <v>51.38202744819282</v>
       </c>
       <c r="F22">
-        <v>15.40128280880529</v>
+        <v>69.30577263962381</v>
       </c>
       <c r="G22">
-        <v>29.44162894074123</v>
+        <v>132.4873302333355</v>
       </c>
       <c r="H22">
-        <v>0.9443658155370039</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I22">
-        <v>119.0133814063325</v>
+        <v>535.5602163284966</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>32.15627773909267</v>
+        <v>144.7032498259169</v>
       </c>
       <c r="C23">
-        <v>3.835256230212657</v>
+        <v>17.25865303595696</v>
       </c>
       <c r="D23">
-        <v>9.09458817420184</v>
+        <v>40.92564678390828</v>
       </c>
       <c r="E23">
-        <v>10.10074043853363</v>
+        <v>45.45333197340135</v>
       </c>
       <c r="F23">
-        <v>16.24354046241183</v>
+        <v>73.09593208085323</v>
       </c>
       <c r="G23">
-        <v>37.64667307176747</v>
+        <v>169.4100288229536</v>
       </c>
       <c r="H23">
-        <v>1.888731631074008</v>
+        <v>8.499292339833035</v>
       </c>
       <c r="I23">
-        <v>110.9658077472941</v>
+        <v>499.3461348628234</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>29.9072523615073</v>
+        <v>134.5826356267829</v>
       </c>
       <c r="C24">
-        <v>3.835256230212657</v>
+        <v>17.25865303595696</v>
       </c>
       <c r="D24">
-        <v>10.39381505623067</v>
+        <v>46.77216775303803</v>
       </c>
       <c r="E24">
-        <v>9.661577810771304</v>
+        <v>43.47710014847085</v>
       </c>
       <c r="F24">
-        <v>15.52160533074909</v>
+        <v>69.84722398837087</v>
       </c>
       <c r="G24">
-        <v>44.88641789326122</v>
+        <v>201.9888805196755</v>
       </c>
       <c r="H24">
-        <v>1.180457269421255</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I24">
-        <v>115.3863819521535</v>
+        <v>519.2387187846908</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>32.10842613531426</v>
+        <v>144.4879176089141</v>
       </c>
       <c r="C25">
-        <v>5.157758378561849</v>
+        <v>23.20991270352832</v>
       </c>
       <c r="D25">
-        <v>12.5591931929454</v>
+        <v>56.51636936825429</v>
       </c>
       <c r="E25">
-        <v>10.10074043853363</v>
+        <v>45.45333197340135</v>
       </c>
       <c r="F25">
-        <v>12.75418732604188</v>
+        <v>57.39384296718846</v>
       </c>
       <c r="G25">
-        <v>46.33436685755996</v>
+        <v>208.5046508590198</v>
       </c>
       <c r="H25">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I25">
-        <v>119.2507637828412</v>
+        <v>536.6284370227854</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>35.74514802247353</v>
+        <v>160.8531661011309</v>
       </c>
       <c r="C26">
-        <v>6.215760097241203</v>
+        <v>27.97092043758541</v>
       </c>
       <c r="D26">
-        <v>16.4568738390319</v>
+        <v>74.05593227564354</v>
       </c>
       <c r="E26">
-        <v>9.222415183008971</v>
+        <v>41.50086832354036</v>
       </c>
       <c r="F26">
-        <v>14.91999272103013</v>
+        <v>67.13996724463556</v>
       </c>
       <c r="G26">
-        <v>42.95581927419622</v>
+        <v>193.301186733883</v>
       </c>
       <c r="H26">
-        <v>0.9443658155370039</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I26">
-        <v>126.4603749525189</v>
+        <v>569.0716872863354</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>35.31448358846782</v>
+        <v>158.9151761481052</v>
       </c>
       <c r="C27">
-        <v>5.686759237901527</v>
+        <v>25.59041657055687</v>
       </c>
       <c r="D27">
-        <v>15.15764695700306</v>
+        <v>68.20941130651379</v>
       </c>
       <c r="E27">
-        <v>8.344089927484307</v>
+        <v>37.54840467367939</v>
       </c>
       <c r="F27">
-        <v>15.04031524297392</v>
+        <v>67.68141859338263</v>
       </c>
       <c r="G27">
-        <v>29.44162894074123</v>
+        <v>132.4873302333355</v>
       </c>
       <c r="H27">
-        <v>4.013554716032266</v>
+        <v>18.0609962221452</v>
       </c>
       <c r="I27">
-        <v>112.9984786106041</v>
+        <v>508.4931537477186</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>36.84573490937697</v>
+        <v>165.8058070921965</v>
       </c>
       <c r="C28">
-        <v>5.554509023066608</v>
+        <v>24.99529060379973</v>
       </c>
       <c r="D28">
-        <v>16.4568738390319</v>
+        <v>74.05593227564354</v>
       </c>
       <c r="E28">
-        <v>10.53990306629596</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F28">
-        <v>14.55902515519875</v>
+        <v>65.51561319839436</v>
       </c>
       <c r="G28">
-        <v>36.19872410746872</v>
+        <v>162.8942584836092</v>
       </c>
       <c r="H28">
-        <v>1.652640177189757</v>
+        <v>7.436880797353907</v>
       </c>
       <c r="I28">
-        <v>121.8074102776287</v>
+        <v>548.1333462493291</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>34.45315472045642</v>
+        <v>155.0391962420539</v>
       </c>
       <c r="C29">
-        <v>4.761007734057092</v>
+        <v>21.42453480325691</v>
       </c>
       <c r="D29">
-        <v>14.72457132966013</v>
+        <v>66.26057098347054</v>
       </c>
       <c r="E29">
-        <v>11.85739094958296</v>
+        <v>53.35825927312332</v>
       </c>
       <c r="F29">
-        <v>9.98676932133468</v>
+        <v>44.94046194600605</v>
       </c>
       <c r="G29">
-        <v>29.44162894074123</v>
+        <v>132.4873302333355</v>
       </c>
       <c r="H29">
-        <v>1.180457269421255</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I29">
-        <v>106.4049802652538</v>
+        <v>478.8224111936419</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>39.19046349451916</v>
+        <v>176.3570857253362</v>
       </c>
       <c r="C30">
-        <v>2.116003437358707</v>
+        <v>9.522015468114184</v>
       </c>
       <c r="D30">
-        <v>16.88994946637484</v>
+        <v>76.0047725986868</v>
       </c>
       <c r="E30">
-        <v>8.344089927484307</v>
+        <v>37.54840467367939</v>
       </c>
       <c r="F30">
-        <v>9.625801755503307</v>
+        <v>43.31610789976487</v>
       </c>
       <c r="G30">
-        <v>27.99367997644248</v>
+        <v>125.9715598939912</v>
       </c>
       <c r="H30">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I30">
-        <v>104.6321709654513</v>
+        <v>470.8447693445309</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>38.18557981517254</v>
+        <v>171.8351091682763</v>
       </c>
       <c r="C31">
-        <v>0.2645004296698384</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D31">
-        <v>7.362285664830063</v>
+        <v>33.13028549173527</v>
       </c>
       <c r="E31">
-        <v>15.80985459944394</v>
+        <v>71.14434569749776</v>
       </c>
       <c r="F31">
-        <v>5.053545921639236</v>
+        <v>22.74095664737656</v>
       </c>
       <c r="G31">
-        <v>21.71923446448123</v>
+        <v>97.73655509016555</v>
       </c>
       <c r="I31">
-        <v>88.39500089523685</v>
+        <v>397.7775040285657</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>33.97463868267231</v>
+        <v>152.8858740720252</v>
       </c>
       <c r="C32">
-        <v>1.190251933514273</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D32">
-        <v>9.527663801544783</v>
+        <v>42.87448710695154</v>
       </c>
       <c r="E32">
-        <v>18.44483036601794</v>
+        <v>83.00173664708072</v>
       </c>
       <c r="F32">
-        <v>5.294190965526819</v>
+        <v>23.82385934487068</v>
       </c>
       <c r="G32">
-        <v>16.89273791681874</v>
+        <v>76.01732062568432</v>
       </c>
       <c r="I32">
-        <v>85.32431366609487</v>
+        <v>383.9594114974267</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>27.08400773858101</v>
+        <v>121.8780348236146</v>
       </c>
       <c r="C33">
-        <v>2.116003437358707</v>
+        <v>9.522015468114184</v>
       </c>
       <c r="D33">
-        <v>9.960739428887731</v>
+        <v>44.82332742999479</v>
       </c>
       <c r="E33">
-        <v>15.37069197168162</v>
+        <v>69.16811387256726</v>
       </c>
       <c r="F33">
-        <v>3.008063048594784</v>
+        <v>13.53628371867652</v>
       </c>
       <c r="G33">
-        <v>7.239744821493747</v>
+        <v>32.57885169672186</v>
       </c>
       <c r="I33">
-        <v>64.77925044659759</v>
+        <v>291.5066270096892</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>21.34181528517162</v>
+        <v>96.03816878327225</v>
       </c>
       <c r="C34">
-        <v>1.190251933514273</v>
+        <v>5.356133700814228</v>
       </c>
       <c r="D34">
-        <v>6.063058782801227</v>
+        <v>27.28376452260552</v>
       </c>
       <c r="E34">
-        <v>12.73571620510762</v>
+        <v>57.31072292298432</v>
       </c>
       <c r="F34">
-        <v>1.564192785269288</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G34">
-        <v>6.757095166727497</v>
+        <v>30.40692825027374</v>
       </c>
       <c r="I34">
-        <v>49.65213015859153</v>
+        <v>223.4345857136619</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>14.02051990707463</v>
+        <v>63.09233958183579</v>
       </c>
       <c r="C35">
-        <v>0.9257515038444346</v>
+        <v>4.165881767299956</v>
       </c>
       <c r="D35">
-        <v>3.031529391400614</v>
+        <v>13.64188226130276</v>
       </c>
       <c r="E35">
-        <v>8.783252555246641</v>
+        <v>39.52463649860987</v>
       </c>
       <c r="F35">
-        <v>2.526772960819618</v>
+        <v>11.37047832368828</v>
       </c>
       <c r="G35">
-        <v>10.13564275009124</v>
+        <v>45.61039237541058</v>
       </c>
       <c r="I35">
-        <v>39.42346906847717</v>
+        <v>177.4056108081472</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>10.04883679346646</v>
+        <v>45.21976557059905</v>
       </c>
       <c r="C36">
-        <v>0.5290008593396768</v>
+        <v>2.380503867028546</v>
       </c>
       <c r="D36">
-        <v>2.598453764057668</v>
+        <v>11.69304193825951</v>
       </c>
       <c r="E36">
-        <v>3.513301022098655</v>
+        <v>15.80985459944394</v>
       </c>
       <c r="F36">
-        <v>1.80483782915687</v>
+        <v>8.121770231205915</v>
       </c>
       <c r="G36">
-        <v>5.309146202428745</v>
+        <v>23.89115791092935</v>
       </c>
       <c r="H36">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I36">
-        <v>24.03966792443232</v>
+        <v>108.1785056599454</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>6.077153679858285</v>
+        <v>27.34719155936227</v>
       </c>
       <c r="C37">
-        <v>0.3967506445047576</v>
+        <v>1.785377900271409</v>
       </c>
       <c r="E37">
-        <v>0.4391626277623319</v>
+        <v>1.976231824930493</v>
       </c>
       <c r="F37">
-        <v>1.80483782915687</v>
+        <v>8.121770231205915</v>
       </c>
       <c r="G37">
-        <v>5.791795857194995</v>
+        <v>26.06308135737748</v>
       </c>
       <c r="I37">
-        <v>14.50970063847724</v>
+        <v>65.29365287314756</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>4.306644340057052</v>
+        <v>19.37989953025674</v>
       </c>
       <c r="C38">
-        <v>0.7935012890095151</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="D38">
-        <v>1.299226882028834</v>
+        <v>5.846520969129754</v>
       </c>
       <c r="E38">
-        <v>0.4391626277623319</v>
+        <v>1.976231824930493</v>
       </c>
       <c r="F38">
-        <v>1.925160351100661</v>
+        <v>8.663221579952976</v>
       </c>
       <c r="G38">
-        <v>1.930598619064998</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="I38">
-        <v>10.69429410902339</v>
+        <v>48.12432349060527</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>2.966799434261525</v>
+        <v>13.35059745417686</v>
       </c>
       <c r="C39">
-        <v>0.2645004296698384</v>
+        <v>1.190251933514273</v>
       </c>
       <c r="D39">
-        <v>2.165378136714723</v>
+        <v>9.744201615216257</v>
       </c>
       <c r="F39">
-        <v>0.2406450438875827</v>
+        <v>1.082902697494122</v>
       </c>
       <c r="G39">
-        <v>4.826496547662497</v>
+        <v>21.71923446448123</v>
       </c>
       <c r="I39">
-        <v>10.46381959219617</v>
+        <v>47.08718816488275</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>2.392580188920585</v>
+        <v>10.76661085014263</v>
       </c>
       <c r="C40">
-        <v>0.5290008593396768</v>
+        <v>2.380503867028546</v>
       </c>
       <c r="D40">
-        <v>0.4330756273429447</v>
+        <v>1.948840323043251</v>
       </c>
       <c r="E40">
-        <v>2.19581313881166</v>
+        <v>9.881159124652468</v>
       </c>
       <c r="F40">
-        <v>1.082902697494122</v>
+        <v>4.873062138723547</v>
       </c>
       <c r="G40">
-        <v>2.413248273831249</v>
+        <v>10.85961723224062</v>
       </c>
       <c r="I40">
-        <v>9.046620785740236</v>
+        <v>40.70979353583106</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>6.316411698750342</v>
+        <v>28.42385264437653</v>
       </c>
       <c r="C41">
-        <v>0.5290008593396768</v>
+        <v>2.380503867028546</v>
       </c>
       <c r="D41">
-        <v>1.732302509371779</v>
+        <v>7.795361292173005</v>
       </c>
       <c r="E41">
-        <v>1.317487883286996</v>
+        <v>5.928695474791479</v>
       </c>
       <c r="F41">
-        <v>1.564192785269288</v>
+        <v>7.038867533711793</v>
       </c>
       <c r="G41">
-        <v>1.930598619064998</v>
+        <v>8.687693785792492</v>
       </c>
       <c r="I41">
-        <v>13.38999435508308</v>
+        <v>60.25497459787385</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>16.84376453000091</v>
+        <v>75.79694038500411</v>
       </c>
       <c r="C42">
-        <v>0.1322502148349192</v>
+        <v>0.5951259667571365</v>
       </c>
       <c r="D42">
-        <v>7.795361292173005</v>
+        <v>35.07912581477851</v>
       </c>
       <c r="E42">
-        <v>4.830788905385652</v>
+        <v>21.73855007423543</v>
       </c>
       <c r="F42">
-        <v>5.053545921639236</v>
+        <v>22.74095664737656</v>
       </c>
       <c r="G42">
-        <v>7.239744821493747</v>
+        <v>32.57885169672186</v>
       </c>
       <c r="I42">
-        <v>41.89545568552747</v>
+        <v>188.5295505848736</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>27.65822698392196</v>
+        <v>124.4620214276488</v>
       </c>
       <c r="C43">
-        <v>0.7935012890095151</v>
+        <v>3.570755800542819</v>
       </c>
       <c r="D43">
-        <v>9.09458817420184</v>
+        <v>40.92564678390828</v>
       </c>
       <c r="E43">
-        <v>16.68817985496861</v>
+        <v>75.09680934735877</v>
       </c>
       <c r="F43">
-        <v>10.46805940910984</v>
+        <v>47.10626734099431</v>
       </c>
       <c r="G43">
-        <v>13.51419033345499</v>
+        <v>60.81385650054747</v>
       </c>
       <c r="I43">
-        <v>78.21674604466676</v>
+        <v>351.9753572010005</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>39.33401830585442</v>
+        <v>177.0030823763448</v>
       </c>
       <c r="C44">
-        <v>1.322502148349192</v>
+        <v>5.951259667571363</v>
       </c>
       <c r="D44">
-        <v>7.362285664830063</v>
+        <v>33.13028549173527</v>
       </c>
       <c r="E44">
-        <v>16.68817985496861</v>
+        <v>75.09680934735877</v>
       </c>
       <c r="F44">
-        <v>5.534836009414401</v>
+        <v>24.90676204236481</v>
       </c>
       <c r="G44">
-        <v>10.13564275009124</v>
+        <v>45.61039237541058</v>
       </c>
       <c r="H44">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I44">
-        <v>80.84964764127643</v>
+        <v>363.8234143857439</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>37.70706377738843</v>
+        <v>169.6817869982479</v>
       </c>
       <c r="C45">
-        <v>4.232006874717414</v>
+        <v>19.04403093622837</v>
       </c>
       <c r="D45">
-        <v>10.82689068357362</v>
+        <v>48.72100807608127</v>
       </c>
       <c r="E45">
-        <v>9.661577810771304</v>
+        <v>43.47710014847085</v>
       </c>
       <c r="F45">
-        <v>9.264834189671936</v>
+        <v>41.6917538535237</v>
       </c>
       <c r="G45">
-        <v>18.34068688111749</v>
+        <v>82.53309096502869</v>
       </c>
       <c r="H45">
-        <v>1.180457269421255</v>
+        <v>5.312057712395646</v>
       </c>
       <c r="I45">
-        <v>91.21351748666146</v>
+        <v>410.4608286899764</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>35.60159321113828</v>
+        <v>160.2071694501223</v>
       </c>
       <c r="C46">
-        <v>2.645004296698384</v>
+        <v>11.90251933514273</v>
       </c>
       <c r="D46">
-        <v>11.69304193825951</v>
+        <v>52.61868872216778</v>
       </c>
       <c r="E46">
-        <v>14.05320408839462</v>
+        <v>63.23941839777578</v>
       </c>
       <c r="F46">
-        <v>12.27289723826672</v>
+        <v>55.22803757220021</v>
       </c>
       <c r="G46">
-        <v>24.61513239307873</v>
+        <v>110.7680957688543</v>
       </c>
       <c r="H46">
-        <v>0.9443658155370039</v>
+        <v>4.249646169916518</v>
       </c>
       <c r="I46">
-        <v>101.8252389813732</v>
+        <v>458.2135754161796</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>27.56252377636514</v>
+        <v>124.0313569936431</v>
       </c>
       <c r="C47">
-        <v>4.232006874717414</v>
+        <v>19.04403093622837</v>
       </c>
       <c r="D47">
-        <v>8.661512546858892</v>
+        <v>38.97680646086503</v>
       </c>
       <c r="E47">
-        <v>11.85739094958296</v>
+        <v>53.35825927312332</v>
       </c>
       <c r="F47">
-        <v>15.16063776491771</v>
+        <v>68.22286994212968</v>
       </c>
       <c r="G47">
-        <v>26.54573101214373</v>
+        <v>119.4557895546468</v>
       </c>
       <c r="H47">
-        <v>3.541371808263765</v>
+        <v>15.93617313718694</v>
       </c>
       <c r="I47">
-        <v>97.56117473284959</v>
+        <v>439.0252862978231</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>30.43362000306983</v>
+        <v>136.9512900138142</v>
       </c>
       <c r="C48">
-        <v>5.025508163726929</v>
+        <v>22.61478673677118</v>
       </c>
       <c r="D48">
-        <v>14.72457132966013</v>
+        <v>66.26057098347054</v>
       </c>
       <c r="E48">
-        <v>10.53990306629596</v>
+        <v>47.42956379833183</v>
       </c>
       <c r="F48">
-        <v>12.75418732604188</v>
+        <v>57.39384296718846</v>
       </c>
       <c r="G48">
-        <v>20.27128550018248</v>
+        <v>91.22078475082115</v>
       </c>
       <c r="H48">
-        <v>0.472182907768502</v>
+        <v>2.124823084958259</v>
       </c>
       <c r="I48">
-        <v>94.22125829674572</v>
+        <v>423.9956623353557</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>32.10842613531426</v>
+        <v>144.4879176089141</v>
       </c>
       <c r="C49">
-        <v>5.157758378561849</v>
+        <v>23.20991270352832</v>
       </c>
       <c r="D49">
-        <v>12.5591931929454</v>
+        <v>56.51636936825429</v>
       </c>
       <c r="E49">
-        <v>10.10074043853363</v>
+        <v>45.45333197340135</v>
       </c>
       <c r="F49">
-        <v>12.75418732604188</v>
+        <v>57.39384296718846</v>
       </c>
       <c r="G49">
-        <v>46.33436685755996</v>
+        <v>208.5046508590198</v>
       </c>
       <c r="H49">
-        <v>0.236091453884251</v>
+        <v>1.062411542479129</v>
       </c>
       <c r="I49">
-        <v>119.2507637828412</v>
+        <v>536.6284370227854</v>
       </c>
     </row>
   </sheetData>
